--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -666,8 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -713,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>346100</v>
+        <v>338900</v>
       </c>
       <c r="E8" s="3">
-        <v>346000</v>
+        <v>338800</v>
       </c>
       <c r="F8" s="3">
-        <v>310400</v>
+        <v>304000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -740,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>106200</v>
+        <v>104000</v>
       </c>
       <c r="E9" s="3">
-        <v>102100</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="3">
-        <v>93400</v>
+        <v>91500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -767,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>239900</v>
+        <v>234900</v>
       </c>
       <c r="E10" s="3">
-        <v>243900</v>
+        <v>238800</v>
       </c>
       <c r="F10" s="3">
-        <v>217000</v>
+        <v>212500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -807,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="E12" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="F12" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -861,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33800</v>
+        <v>33100</v>
       </c>
       <c r="E14" s="3">
-        <v>28000</v>
+        <v>27400</v>
       </c>
       <c r="F14" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -888,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="E15" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="F15" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -925,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>332100</v>
+        <v>325200</v>
       </c>
       <c r="E17" s="3">
-        <v>271300</v>
+        <v>265700</v>
       </c>
       <c r="F17" s="3">
-        <v>218800</v>
+        <v>214300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -952,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="E18" s="3">
-        <v>74700</v>
+        <v>73100</v>
       </c>
       <c r="F18" s="3">
-        <v>91600</v>
+        <v>89700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1019,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53100</v>
+        <v>52300</v>
       </c>
       <c r="E21" s="3">
-        <v>95600</v>
+        <v>93800</v>
       </c>
       <c r="F21" s="3">
-        <v>109200</v>
+        <v>107100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1073,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="3">
-        <v>75100</v>
+        <v>73500</v>
       </c>
       <c r="F23" s="3">
-        <v>92000</v>
+        <v>90100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1100,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E24" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1154,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E26" s="3">
-        <v>60200</v>
+        <v>58900</v>
       </c>
       <c r="F26" s="3">
-        <v>75900</v>
+        <v>74300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1181,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E27" s="3">
-        <v>60200</v>
+        <v>58900</v>
       </c>
       <c r="F27" s="3">
-        <v>75900</v>
+        <v>74300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1241,7 +1240,7 @@
         <v>-300</v>
       </c>
       <c r="F29" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1343,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E33" s="3">
-        <v>59900</v>
+        <v>58700</v>
       </c>
       <c r="F33" s="3">
-        <v>82800</v>
+        <v>81100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1397,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E35" s="3">
-        <v>59900</v>
+        <v>58700</v>
       </c>
       <c r="F35" s="3">
-        <v>82800</v>
+        <v>81100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1482,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>292700</v>
+        <v>244200</v>
       </c>
       <c r="E41" s="3">
-        <v>249300</v>
+        <v>113500</v>
       </c>
       <c r="F41" s="3">
-        <v>115900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>120100</v>
+        <v>117600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1536,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70900</v>
+        <v>60100</v>
       </c>
       <c r="E43" s="3">
-        <v>61400</v>
+        <v>56600</v>
       </c>
       <c r="F43" s="3">
-        <v>57800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>41700</v>
+        <v>40800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1563,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61100</v>
+        <v>53100</v>
       </c>
       <c r="E44" s="3">
-        <v>54200</v>
+        <v>46900</v>
       </c>
       <c r="F44" s="3">
-        <v>47900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>39400</v>
+        <v>38600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1590,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>6100</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>11700</v>
+        <v>11500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1617,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>425600</v>
+        <v>363400</v>
       </c>
       <c r="E46" s="3">
-        <v>371100</v>
+        <v>224000</v>
       </c>
       <c r="F46" s="3">
-        <v>228700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>212800</v>
+        <v>208400</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1644,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4700</v>
+        <v>9100</v>
       </c>
       <c r="E47" s="3">
-        <v>9300</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G47" s="3">
         <v>1200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1671,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213000</v>
+        <v>214700</v>
       </c>
       <c r="E48" s="3">
-        <v>219200</v>
+        <v>48400</v>
       </c>
       <c r="F48" s="3">
-        <v>49400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>33400</v>
+        <v>32700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1698,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>447500</v>
+        <v>452600</v>
       </c>
       <c r="E49" s="3">
-        <v>462200</v>
+        <v>296700</v>
       </c>
       <c r="F49" s="3">
-        <v>303000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>293500</v>
+        <v>287400</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1779,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>17900</v>
       </c>
       <c r="E52" s="3">
-        <v>18200</v>
+        <v>12300</v>
       </c>
       <c r="F52" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>11200</v>
+        <v>11000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1833,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1097500</v>
+        <v>1057700</v>
       </c>
       <c r="E54" s="3">
-        <v>1080100</v>
+        <v>582300</v>
       </c>
       <c r="F54" s="3">
-        <v>594600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>552100</v>
+        <v>540700</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1886,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76000</v>
+        <v>12300</v>
       </c>
       <c r="E57" s="3">
-        <v>12500</v>
+        <v>9100</v>
       </c>
       <c r="F57" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>9300</v>
+        <v>9100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1913,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>151300</v>
+        <v>148200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1940,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>47600</v>
       </c>
       <c r="E59" s="3">
-        <v>48600</v>
+        <v>49900</v>
       </c>
       <c r="F59" s="3">
-        <v>51000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>55900</v>
+        <v>54800</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1967,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89100</v>
+        <v>208100</v>
       </c>
       <c r="E60" s="3">
-        <v>212400</v>
+        <v>59100</v>
       </c>
       <c r="F60" s="3">
-        <v>60300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>65200</v>
+        <v>63900</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1994,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>136300</v>
+        <v>157100</v>
       </c>
       <c r="E61" s="3">
-        <v>160400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2021,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>37400</v>
       </c>
       <c r="E62" s="3">
-        <v>38200</v>
+        <v>21600</v>
       </c>
       <c r="F62" s="3">
-        <v>22100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>18800</v>
+        <v>18400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2129,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>252600</v>
+        <v>402500</v>
       </c>
       <c r="E66" s="3">
-        <v>411000</v>
+        <v>80700</v>
       </c>
       <c r="F66" s="3">
-        <v>82400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>84000</v>
+        <v>82300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>466900</v>
+        <v>422800</v>
       </c>
       <c r="E72" s="3">
-        <v>431700</v>
+        <v>427800</v>
       </c>
       <c r="F72" s="3">
-        <v>436900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>402700</v>
+        <v>394300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2385,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>844800</v>
+        <v>655200</v>
       </c>
       <c r="E76" s="3">
-        <v>669000</v>
+        <v>501600</v>
       </c>
       <c r="F76" s="3">
-        <v>512200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>468100</v>
+        <v>458500</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2471,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E81" s="3">
-        <v>59900</v>
+        <v>58700</v>
       </c>
       <c r="F81" s="3">
-        <v>82800</v>
+        <v>81100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2511,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39800</v>
+        <v>39000</v>
       </c>
       <c r="E83" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="F83" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2673,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83900</v>
+        <v>82100</v>
       </c>
       <c r="E89" s="3">
-        <v>93400</v>
+        <v>91500</v>
       </c>
       <c r="F89" s="3">
-        <v>84300</v>
+        <v>82500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2713,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16900</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-23600</v>
+        <v>-23100</v>
       </c>
       <c r="F91" s="3">
-        <v>-21800</v>
+        <v>-21400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2794,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-197100</v>
+        <v>-193100</v>
       </c>
       <c r="E94" s="3">
-        <v>-66400</v>
+        <v>-65000</v>
       </c>
       <c r="F94" s="3">
-        <v>-50200</v>
+        <v>-49100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2834,13 +2833,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33300</v>
+        <v>-32600</v>
       </c>
       <c r="E96" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="F96" s="3">
-        <v>-29400</v>
+        <v>-28800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2942,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>245700</v>
+        <v>240600</v>
       </c>
       <c r="E100" s="3">
-        <v>-32900</v>
+        <v>-32200</v>
       </c>
       <c r="F100" s="3">
-        <v>-27400</v>
+        <v>-26900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2996,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>133400</v>
+        <v>130600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="F102" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,38 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +706,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>338900</v>
+        <v>564700</v>
       </c>
       <c r="E8" s="3">
-        <v>338800</v>
+        <v>317200</v>
       </c>
       <c r="F8" s="3">
-        <v>304000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>317100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>284500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +736,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>104000</v>
+        <v>163100</v>
       </c>
       <c r="E9" s="3">
-        <v>100000</v>
+        <v>97300</v>
       </c>
       <c r="F9" s="3">
-        <v>91500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>93600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>85600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +766,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>234900</v>
+        <v>401600</v>
       </c>
       <c r="E10" s="3">
-        <v>238800</v>
+        <v>219800</v>
       </c>
       <c r="F10" s="3">
-        <v>212500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>223500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>198800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +813,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22700</v>
+        <v>37100</v>
       </c>
       <c r="E12" s="3">
-        <v>13900</v>
+        <v>21200</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +870,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33100</v>
+        <v>31200</v>
       </c>
       <c r="E14" s="3">
-        <v>27400</v>
+        <v>31000</v>
       </c>
       <c r="F14" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>25600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,23 +900,26 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11200</v>
+        <v>16500</v>
       </c>
       <c r="E15" s="3">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="F15" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -907,9 +930,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +944,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>325200</v>
+        <v>534900</v>
       </c>
       <c r="E17" s="3">
-        <v>265700</v>
+        <v>304400</v>
       </c>
       <c r="F17" s="3">
-        <v>214300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>248600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +971,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13700</v>
+        <v>29800</v>
       </c>
       <c r="E18" s="3">
-        <v>73100</v>
+        <v>12800</v>
       </c>
       <c r="F18" s="3">
-        <v>89700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>83900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1018,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1045,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52300</v>
+        <v>97900</v>
       </c>
       <c r="E21" s="3">
-        <v>93800</v>
+        <v>48700</v>
       </c>
       <c r="F21" s="3">
-        <v>107100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>87700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,17 +1075,20 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1065,23 +1105,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11000</v>
+        <v>24800</v>
       </c>
       <c r="E23" s="3">
-        <v>73500</v>
+        <v>10200</v>
       </c>
       <c r="F23" s="3">
-        <v>90100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>68800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>84300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1135,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5300</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
-        <v>14600</v>
+        <v>-5000</v>
       </c>
       <c r="F24" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1195,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>21000</v>
       </c>
       <c r="E26" s="3">
-        <v>58900</v>
+        <v>15200</v>
       </c>
       <c r="F26" s="3">
-        <v>74300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>55100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>69500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1225,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16300</v>
+        <v>21000</v>
       </c>
       <c r="E27" s="3">
-        <v>58900</v>
+        <v>15200</v>
       </c>
       <c r="F27" s="3">
-        <v>74300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>55100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>69500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,23 +1285,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1254,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1375,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1405,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16300</v>
+        <v>21000</v>
       </c>
       <c r="E33" s="3">
-        <v>58700</v>
+        <v>15200</v>
       </c>
       <c r="F33" s="3">
-        <v>81100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>54900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>75900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1465,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16300</v>
+        <v>21000</v>
       </c>
       <c r="E35" s="3">
-        <v>58700</v>
+        <v>15200</v>
       </c>
       <c r="F35" s="3">
-        <v>81100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>54900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>75900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1561,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>244200</v>
+        <v>116000</v>
       </c>
       <c r="E41" s="3">
-        <v>113500</v>
+        <v>228500</v>
       </c>
       <c r="F41" s="3">
-        <v>117600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>106300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>110000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1618,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60100</v>
+        <v>64200</v>
       </c>
       <c r="E43" s="3">
-        <v>56600</v>
+        <v>56200</v>
       </c>
       <c r="F43" s="3">
-        <v>40800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>52900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>38200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,23 +1648,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>53100</v>
+        <v>71000</v>
       </c>
       <c r="E44" s="3">
-        <v>46900</v>
+        <v>49600</v>
       </c>
       <c r="F44" s="3">
-        <v>38600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>43900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>36100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1582,23 +1678,26 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1708,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>363400</v>
+        <v>258000</v>
       </c>
       <c r="E46" s="3">
-        <v>224000</v>
+        <v>340100</v>
       </c>
       <c r="F46" s="3">
-        <v>208400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>209600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>195100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1738,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9100</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>1100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1768,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>214700</v>
+        <v>197300</v>
       </c>
       <c r="E48" s="3">
-        <v>48400</v>
+        <v>200900</v>
       </c>
       <c r="F48" s="3">
-        <v>32700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>45300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>30600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1798,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>452600</v>
+        <v>730700</v>
       </c>
       <c r="E49" s="3">
-        <v>296700</v>
+        <v>423500</v>
       </c>
       <c r="F49" s="3">
-        <v>287400</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>277600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>269000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1888,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17900</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
-        <v>12300</v>
+        <v>16700</v>
       </c>
       <c r="F52" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1948,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1057700</v>
+        <v>1202900</v>
       </c>
       <c r="E54" s="3">
-        <v>582300</v>
+        <v>989800</v>
       </c>
       <c r="F54" s="3">
-        <v>540700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>544900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>506000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2009,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12300</v>
+        <v>15700</v>
       </c>
       <c r="E57" s="3">
-        <v>9100</v>
+        <v>11500</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,17 +2036,20 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>148200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>156600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>138700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2066,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47600</v>
+        <v>56000</v>
       </c>
       <c r="E59" s="3">
-        <v>49900</v>
+        <v>44500</v>
       </c>
       <c r="F59" s="3">
-        <v>54800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>46700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>51200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2096,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>208100</v>
+        <v>228400</v>
       </c>
       <c r="E60" s="3">
-        <v>59100</v>
+        <v>194700</v>
       </c>
       <c r="F60" s="3">
-        <v>63900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>59800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,17 +2126,20 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>157100</v>
+        <v>123600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2013,23 +2156,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37400</v>
+        <v>50600</v>
       </c>
       <c r="E62" s="3">
-        <v>21600</v>
+        <v>35000</v>
       </c>
       <c r="F62" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>20300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2276,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>402500</v>
+        <v>402600</v>
       </c>
       <c r="E66" s="3">
-        <v>80700</v>
+        <v>376700</v>
       </c>
       <c r="F66" s="3">
-        <v>82300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>75500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>77000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2440,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>422800</v>
+        <v>437000</v>
       </c>
       <c r="E72" s="3">
-        <v>427800</v>
+        <v>395600</v>
       </c>
       <c r="F72" s="3">
-        <v>394300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>400400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>369000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2560,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>655200</v>
+        <v>800400</v>
       </c>
       <c r="E76" s="3">
-        <v>501600</v>
+        <v>613100</v>
       </c>
       <c r="F76" s="3">
-        <v>458500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>469400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>429000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2655,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16300</v>
+        <v>21000</v>
       </c>
       <c r="E81" s="3">
-        <v>58700</v>
+        <v>15200</v>
       </c>
       <c r="F81" s="3">
-        <v>81100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>54900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>75900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2702,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39000</v>
+        <v>69500</v>
       </c>
       <c r="E83" s="3">
-        <v>20100</v>
+        <v>36500</v>
       </c>
       <c r="F83" s="3">
-        <v>16800</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>15700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2879,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82100</v>
+        <v>117400</v>
       </c>
       <c r="E89" s="3">
-        <v>91500</v>
+        <v>76900</v>
       </c>
       <c r="F89" s="3">
-        <v>82500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>85600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>77200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2926,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-56100</v>
       </c>
       <c r="E91" s="3">
-        <v>-23100</v>
+        <v>-15500</v>
       </c>
       <c r="F91" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-21600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-20000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3013,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-193100</v>
+        <v>-382700</v>
       </c>
       <c r="E94" s="3">
-        <v>-65000</v>
+        <v>-180700</v>
       </c>
       <c r="F94" s="3">
-        <v>-49100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-60900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-46000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,22 +3060,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-32500</v>
+        <v>-30500</v>
       </c>
       <c r="F96" s="3">
-        <v>-28800</v>
+        <v>-30400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-27000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2853,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3177,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>240600</v>
+        <v>154200</v>
       </c>
       <c r="E100" s="3">
-        <v>-32200</v>
+        <v>225200</v>
       </c>
       <c r="F100" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-30100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-25100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3207,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>1700</v>
-      </c>
       <c r="F101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3237,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>130600</v>
+        <v>-112500</v>
       </c>
       <c r="E102" s="3">
-        <v>-4000</v>
+        <v>122200</v>
       </c>
       <c r="F102" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>564700</v>
+        <v>547600</v>
       </c>
       <c r="E8" s="3">
-        <v>317200</v>
+        <v>307600</v>
       </c>
       <c r="F8" s="3">
-        <v>317100</v>
+        <v>307400</v>
       </c>
       <c r="G8" s="3">
-        <v>284500</v>
+        <v>275900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>163100</v>
+        <v>158200</v>
       </c>
       <c r="E9" s="3">
-        <v>97300</v>
+        <v>94400</v>
       </c>
       <c r="F9" s="3">
-        <v>93600</v>
+        <v>90700</v>
       </c>
       <c r="G9" s="3">
-        <v>85600</v>
+        <v>83000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>401600</v>
+        <v>389400</v>
       </c>
       <c r="E10" s="3">
-        <v>219800</v>
+        <v>213200</v>
       </c>
       <c r="F10" s="3">
-        <v>223500</v>
+        <v>216700</v>
       </c>
       <c r="G10" s="3">
-        <v>198800</v>
+        <v>192800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -820,16 +820,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="E12" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="F12" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="G12" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>31200</v>
+        <v>30300</v>
       </c>
       <c r="E14" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="G14" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -910,16 +910,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E15" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="F15" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G15" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>534900</v>
+        <v>518700</v>
       </c>
       <c r="E17" s="3">
-        <v>304400</v>
+        <v>295100</v>
       </c>
       <c r="F17" s="3">
-        <v>248600</v>
+        <v>241100</v>
       </c>
       <c r="G17" s="3">
-        <v>200600</v>
+        <v>194500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29800</v>
+        <v>28900</v>
       </c>
       <c r="E18" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="F18" s="3">
-        <v>68400</v>
+        <v>66400</v>
       </c>
       <c r="G18" s="3">
-        <v>83900</v>
+        <v>81400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1055,16 +1055,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97900</v>
+        <v>94400</v>
       </c>
       <c r="E21" s="3">
-        <v>48700</v>
+        <v>47000</v>
       </c>
       <c r="F21" s="3">
-        <v>87700</v>
+        <v>84900</v>
       </c>
       <c r="G21" s="3">
-        <v>100100</v>
+        <v>97000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="E23" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="F23" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="G23" s="3">
-        <v>84300</v>
+        <v>81700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="F24" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E26" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="F26" s="3">
-        <v>55100</v>
+        <v>53500</v>
       </c>
       <c r="G26" s="3">
-        <v>69500</v>
+        <v>67400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E27" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="3">
-        <v>55100</v>
+        <v>53500</v>
       </c>
       <c r="G27" s="3">
-        <v>69500</v>
+        <v>67400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>-200</v>
       </c>
       <c r="G29" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E33" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="F33" s="3">
-        <v>54900</v>
+        <v>53200</v>
       </c>
       <c r="G33" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E35" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="F35" s="3">
-        <v>54900</v>
+        <v>53200</v>
       </c>
       <c r="G35" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1568,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116000</v>
+        <v>112500</v>
       </c>
       <c r="E41" s="3">
-        <v>228500</v>
+        <v>221600</v>
       </c>
       <c r="F41" s="3">
-        <v>106300</v>
+        <v>103000</v>
       </c>
       <c r="G41" s="3">
-        <v>110000</v>
+        <v>106700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1628,16 +1628,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64200</v>
+        <v>62200</v>
       </c>
       <c r="E43" s="3">
-        <v>56200</v>
+        <v>54500</v>
       </c>
       <c r="F43" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="G43" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1658,16 +1658,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71000</v>
+        <v>68800</v>
       </c>
       <c r="E44" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="F44" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="G44" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1688,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E45" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G45" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1718,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258000</v>
+        <v>250200</v>
       </c>
       <c r="E46" s="3">
-        <v>340100</v>
+        <v>329800</v>
       </c>
       <c r="F46" s="3">
-        <v>209600</v>
+        <v>203200</v>
       </c>
       <c r="G46" s="3">
-        <v>195100</v>
+        <v>189100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1748,13 +1748,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
         <v>1100</v>
@@ -1778,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>197300</v>
+        <v>191300</v>
       </c>
       <c r="E48" s="3">
-        <v>200900</v>
+        <v>194800</v>
       </c>
       <c r="F48" s="3">
-        <v>45300</v>
+        <v>43900</v>
       </c>
       <c r="G48" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1808,16 +1808,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>730700</v>
+        <v>708600</v>
       </c>
       <c r="E49" s="3">
-        <v>423500</v>
+        <v>410700</v>
       </c>
       <c r="F49" s="3">
-        <v>277600</v>
+        <v>269200</v>
       </c>
       <c r="G49" s="3">
-        <v>269000</v>
+        <v>260800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1898,16 +1898,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="G52" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1202900</v>
+        <v>1166500</v>
       </c>
       <c r="E54" s="3">
-        <v>989800</v>
+        <v>959800</v>
       </c>
       <c r="F54" s="3">
-        <v>544900</v>
+        <v>528400</v>
       </c>
       <c r="G54" s="3">
-        <v>506000</v>
+        <v>490700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E57" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F57" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="G57" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2046,10 +2046,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156600</v>
+        <v>151900</v>
       </c>
       <c r="E58" s="3">
-        <v>138700</v>
+        <v>134500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56000</v>
+        <v>54300</v>
       </c>
       <c r="E59" s="3">
-        <v>44500</v>
+        <v>43200</v>
       </c>
       <c r="F59" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>51200</v>
+        <v>49700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228400</v>
+        <v>221400</v>
       </c>
       <c r="E60" s="3">
-        <v>194700</v>
+        <v>188800</v>
       </c>
       <c r="F60" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="G60" s="3">
-        <v>59800</v>
+        <v>58000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123600</v>
+        <v>119800</v>
       </c>
       <c r="E61" s="3">
-        <v>147000</v>
+        <v>142500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="E62" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="F62" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="G62" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>402600</v>
+        <v>390400</v>
       </c>
       <c r="E66" s="3">
-        <v>376700</v>
+        <v>365300</v>
       </c>
       <c r="F66" s="3">
-        <v>75500</v>
+        <v>73200</v>
       </c>
       <c r="G66" s="3">
-        <v>77000</v>
+        <v>74600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2450,16 +2450,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>437000</v>
+        <v>423700</v>
       </c>
       <c r="E72" s="3">
-        <v>395600</v>
+        <v>383600</v>
       </c>
       <c r="F72" s="3">
-        <v>400400</v>
+        <v>388200</v>
       </c>
       <c r="G72" s="3">
-        <v>369000</v>
+        <v>357800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2570,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800400</v>
+        <v>776100</v>
       </c>
       <c r="E76" s="3">
-        <v>613100</v>
+        <v>594500</v>
       </c>
       <c r="F76" s="3">
-        <v>469400</v>
+        <v>455200</v>
       </c>
       <c r="G76" s="3">
-        <v>429000</v>
+        <v>416000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E81" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="F81" s="3">
-        <v>54900</v>
+        <v>53200</v>
       </c>
       <c r="G81" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2709,16 +2709,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69500</v>
+        <v>67400</v>
       </c>
       <c r="E83" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="F83" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="G83" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>117400</v>
+        <v>113800</v>
       </c>
       <c r="E89" s="3">
-        <v>76900</v>
+        <v>74500</v>
       </c>
       <c r="F89" s="3">
-        <v>85600</v>
+        <v>83000</v>
       </c>
       <c r="G89" s="3">
-        <v>77200</v>
+        <v>74900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56100</v>
+        <v>-54400</v>
       </c>
       <c r="E91" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="F91" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="G91" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-382700</v>
+        <v>-371100</v>
       </c>
       <c r="E94" s="3">
-        <v>-180700</v>
+        <v>-175200</v>
       </c>
       <c r="F94" s="3">
-        <v>-60900</v>
+        <v>-59000</v>
       </c>
       <c r="G94" s="3">
-        <v>-46000</v>
+        <v>-44600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-30500</v>
+        <v>-29600</v>
       </c>
       <c r="F96" s="3">
-        <v>-30400</v>
+        <v>-29500</v>
       </c>
       <c r="G96" s="3">
-        <v>-27000</v>
+        <v>-26100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>154200</v>
+        <v>149500</v>
       </c>
       <c r="E100" s="3">
-        <v>225200</v>
+        <v>218400</v>
       </c>
       <c r="F100" s="3">
-        <v>-30100</v>
+        <v>-29200</v>
       </c>
       <c r="G100" s="3">
-        <v>-25100</v>
+        <v>-24400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3220,10 +3220,10 @@
         <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-112500</v>
+        <v>-109100</v>
       </c>
       <c r="E102" s="3">
-        <v>122200</v>
+        <v>118500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>547600</v>
+        <v>542200</v>
       </c>
       <c r="E8" s="3">
-        <v>307600</v>
+        <v>304500</v>
       </c>
       <c r="F8" s="3">
-        <v>307400</v>
+        <v>304400</v>
       </c>
       <c r="G8" s="3">
-        <v>275900</v>
+        <v>273100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>158200</v>
+        <v>156600</v>
       </c>
       <c r="E9" s="3">
-        <v>94400</v>
+        <v>93500</v>
       </c>
       <c r="F9" s="3">
-        <v>90700</v>
+        <v>89800</v>
       </c>
       <c r="G9" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>389400</v>
+        <v>385600</v>
       </c>
       <c r="E10" s="3">
-        <v>213200</v>
+        <v>211100</v>
       </c>
       <c r="F10" s="3">
-        <v>216700</v>
+        <v>214600</v>
       </c>
       <c r="G10" s="3">
-        <v>192800</v>
+        <v>190900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -820,16 +820,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="E12" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F12" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="E14" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="F14" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="G14" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -910,16 +910,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="E15" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="F15" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G15" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>518700</v>
+        <v>513600</v>
       </c>
       <c r="E17" s="3">
-        <v>295100</v>
+        <v>292200</v>
       </c>
       <c r="F17" s="3">
-        <v>241100</v>
+        <v>238700</v>
       </c>
       <c r="G17" s="3">
-        <v>194500</v>
+        <v>192600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="E18" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F18" s="3">
-        <v>66400</v>
+        <v>65700</v>
       </c>
       <c r="G18" s="3">
-        <v>81400</v>
+        <v>80600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
@@ -1055,16 +1055,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94400</v>
+        <v>91700</v>
       </c>
       <c r="E21" s="3">
-        <v>47000</v>
+        <v>45600</v>
       </c>
       <c r="F21" s="3">
-        <v>84900</v>
+        <v>83500</v>
       </c>
       <c r="G21" s="3">
-        <v>97000</v>
+        <v>95600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="E23" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F23" s="3">
-        <v>66700</v>
+        <v>66100</v>
       </c>
       <c r="G23" s="3">
-        <v>81700</v>
+        <v>80900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
         <v>-4800</v>
       </c>
       <c r="F24" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="G24" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E26" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F26" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="G26" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F27" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="G27" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>-200</v>
       </c>
       <c r="G29" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F33" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="G33" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F35" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="G35" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1568,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112500</v>
+        <v>111400</v>
       </c>
       <c r="E41" s="3">
-        <v>221600</v>
+        <v>219400</v>
       </c>
       <c r="F41" s="3">
-        <v>103000</v>
+        <v>102000</v>
       </c>
       <c r="G41" s="3">
-        <v>106700</v>
+        <v>105700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1628,16 +1628,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62200</v>
+        <v>61600</v>
       </c>
       <c r="E43" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="F43" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="G43" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1658,16 +1658,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="E44" s="3">
-        <v>48100</v>
+        <v>47700</v>
       </c>
       <c r="F44" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="G44" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1691,13 +1691,13 @@
         <v>6600</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F45" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G45" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1718,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>250200</v>
+        <v>247700</v>
       </c>
       <c r="E46" s="3">
-        <v>329800</v>
+        <v>326600</v>
       </c>
       <c r="F46" s="3">
-        <v>203200</v>
+        <v>201200</v>
       </c>
       <c r="G46" s="3">
-        <v>189100</v>
+        <v>187300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1751,7 +1751,7 @@
         <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F47" s="3">
         <v>900</v>
@@ -1778,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191300</v>
+        <v>189400</v>
       </c>
       <c r="E48" s="3">
-        <v>194800</v>
+        <v>192900</v>
       </c>
       <c r="F48" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="G48" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1808,16 +1808,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>708600</v>
+        <v>701600</v>
       </c>
       <c r="E49" s="3">
-        <v>410700</v>
+        <v>406700</v>
       </c>
       <c r="F49" s="3">
-        <v>269200</v>
+        <v>266600</v>
       </c>
       <c r="G49" s="3">
-        <v>260800</v>
+        <v>258300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1898,16 +1898,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E52" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="F52" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G52" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1166500</v>
+        <v>1155000</v>
       </c>
       <c r="E54" s="3">
-        <v>959800</v>
+        <v>950400</v>
       </c>
       <c r="F54" s="3">
-        <v>528400</v>
+        <v>523200</v>
       </c>
       <c r="G54" s="3">
-        <v>490700</v>
+        <v>485900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="E57" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F57" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G57" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2046,10 +2046,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>151900</v>
+        <v>150400</v>
       </c>
       <c r="E58" s="3">
-        <v>134500</v>
+        <v>133200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="E59" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="F59" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="G59" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221400</v>
+        <v>219300</v>
       </c>
       <c r="E60" s="3">
-        <v>188800</v>
+        <v>186900</v>
       </c>
       <c r="F60" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="G60" s="3">
-        <v>58000</v>
+        <v>57400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="E61" s="3">
-        <v>142500</v>
+        <v>141100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="E62" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F62" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="G62" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>390400</v>
+        <v>386500</v>
       </c>
       <c r="E66" s="3">
-        <v>365300</v>
+        <v>361700</v>
       </c>
       <c r="F66" s="3">
-        <v>73200</v>
+        <v>72500</v>
       </c>
       <c r="G66" s="3">
-        <v>74600</v>
+        <v>73900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2450,16 +2450,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>423700</v>
+        <v>419600</v>
       </c>
       <c r="E72" s="3">
-        <v>383600</v>
+        <v>379900</v>
       </c>
       <c r="F72" s="3">
-        <v>388200</v>
+        <v>384400</v>
       </c>
       <c r="G72" s="3">
-        <v>357800</v>
+        <v>354300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2570,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>776100</v>
+        <v>768500</v>
       </c>
       <c r="E76" s="3">
-        <v>594500</v>
+        <v>588700</v>
       </c>
       <c r="F76" s="3">
-        <v>455200</v>
+        <v>450700</v>
       </c>
       <c r="G76" s="3">
-        <v>416000</v>
+        <v>411900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F81" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="G81" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2709,16 +2709,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="E83" s="3">
-        <v>35400</v>
+        <v>35000</v>
       </c>
       <c r="F83" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="G83" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>113800</v>
+        <v>112700</v>
       </c>
       <c r="E89" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="F89" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="G89" s="3">
-        <v>74900</v>
+        <v>74100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54400</v>
+        <v>-53900</v>
       </c>
       <c r="E91" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="F91" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="G91" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-371100</v>
+        <v>-367400</v>
       </c>
       <c r="E94" s="3">
-        <v>-175200</v>
+        <v>-173500</v>
       </c>
       <c r="F94" s="3">
-        <v>-59000</v>
+        <v>-58400</v>
       </c>
       <c r="G94" s="3">
-        <v>-44600</v>
+        <v>-44200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-29600</v>
+        <v>-29300</v>
       </c>
       <c r="F96" s="3">
-        <v>-29500</v>
+        <v>-29200</v>
       </c>
       <c r="G96" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>149500</v>
+        <v>148100</v>
       </c>
       <c r="E100" s="3">
-        <v>218400</v>
+        <v>216200</v>
       </c>
       <c r="F100" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="G100" s="3">
-        <v>-24400</v>
+        <v>-24100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-109100</v>
+        <v>-108000</v>
       </c>
       <c r="E102" s="3">
-        <v>118500</v>
+        <v>117400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="G102" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>542200</v>
+        <v>552000</v>
       </c>
       <c r="E8" s="3">
-        <v>304500</v>
+        <v>310100</v>
       </c>
       <c r="F8" s="3">
-        <v>304400</v>
+        <v>309900</v>
       </c>
       <c r="G8" s="3">
-        <v>273100</v>
+        <v>278100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>156600</v>
+        <v>159400</v>
       </c>
       <c r="E9" s="3">
-        <v>93500</v>
+        <v>95200</v>
       </c>
       <c r="F9" s="3">
-        <v>89800</v>
+        <v>91500</v>
       </c>
       <c r="G9" s="3">
-        <v>82200</v>
+        <v>83700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>385600</v>
+        <v>392600</v>
       </c>
       <c r="E10" s="3">
-        <v>211100</v>
+        <v>214900</v>
       </c>
       <c r="F10" s="3">
-        <v>214600</v>
+        <v>218500</v>
       </c>
       <c r="G10" s="3">
-        <v>190900</v>
+        <v>194400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -820,16 +820,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>35600</v>
+        <v>36300</v>
       </c>
       <c r="E12" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="F12" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="E14" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="F14" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -910,16 +910,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="E15" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F15" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G15" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>513600</v>
+        <v>522900</v>
       </c>
       <c r="E17" s="3">
-        <v>292200</v>
+        <v>297500</v>
       </c>
       <c r="F17" s="3">
-        <v>238700</v>
+        <v>243000</v>
       </c>
       <c r="G17" s="3">
-        <v>192600</v>
+        <v>196000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="E18" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="F18" s="3">
-        <v>65700</v>
+        <v>66900</v>
       </c>
       <c r="G18" s="3">
-        <v>80600</v>
+        <v>82000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
@@ -1055,16 +1055,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91700</v>
+        <v>94900</v>
       </c>
       <c r="E21" s="3">
-        <v>45600</v>
+        <v>47200</v>
       </c>
       <c r="F21" s="3">
-        <v>83500</v>
+        <v>85500</v>
       </c>
       <c r="G21" s="3">
-        <v>95600</v>
+        <v>97700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="E23" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F23" s="3">
-        <v>66100</v>
+        <v>67300</v>
       </c>
       <c r="G23" s="3">
-        <v>80900</v>
+        <v>82400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F24" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="G24" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E26" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F26" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="G26" s="3">
-        <v>66800</v>
+        <v>68000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E27" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F27" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="G27" s="3">
-        <v>66800</v>
+        <v>68000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>-200</v>
       </c>
       <c r="G29" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E33" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F33" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="G33" s="3">
-        <v>72900</v>
+        <v>74200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E35" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F35" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="G35" s="3">
-        <v>72900</v>
+        <v>74200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1568,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111400</v>
+        <v>113400</v>
       </c>
       <c r="E41" s="3">
-        <v>219400</v>
+        <v>223400</v>
       </c>
       <c r="F41" s="3">
-        <v>102000</v>
+        <v>103900</v>
       </c>
       <c r="G41" s="3">
-        <v>105700</v>
+        <v>107600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1628,16 +1628,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61600</v>
+        <v>62700</v>
       </c>
       <c r="E43" s="3">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="F43" s="3">
-        <v>50800</v>
+        <v>51800</v>
       </c>
       <c r="G43" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1658,16 +1658,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68200</v>
+        <v>69400</v>
       </c>
       <c r="E44" s="3">
-        <v>47700</v>
+        <v>48500</v>
       </c>
       <c r="F44" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="G44" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1688,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G45" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1718,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>247700</v>
+        <v>252200</v>
       </c>
       <c r="E46" s="3">
-        <v>326600</v>
+        <v>332500</v>
       </c>
       <c r="F46" s="3">
-        <v>201200</v>
+        <v>204900</v>
       </c>
       <c r="G46" s="3">
-        <v>187300</v>
+        <v>190700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1748,13 +1748,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="3">
         <v>1100</v>
@@ -1778,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>189400</v>
+        <v>192800</v>
       </c>
       <c r="E48" s="3">
-        <v>192900</v>
+        <v>196400</v>
       </c>
       <c r="F48" s="3">
-        <v>43500</v>
+        <v>44200</v>
       </c>
       <c r="G48" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1808,16 +1808,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>701600</v>
+        <v>714300</v>
       </c>
       <c r="E49" s="3">
-        <v>406700</v>
+        <v>414000</v>
       </c>
       <c r="F49" s="3">
-        <v>266600</v>
+        <v>271400</v>
       </c>
       <c r="G49" s="3">
-        <v>258300</v>
+        <v>262900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1898,16 +1898,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="E52" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F52" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G52" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1155000</v>
+        <v>1175900</v>
       </c>
       <c r="E54" s="3">
-        <v>950400</v>
+        <v>967600</v>
       </c>
       <c r="F54" s="3">
-        <v>523200</v>
+        <v>532700</v>
       </c>
       <c r="G54" s="3">
-        <v>485900</v>
+        <v>494700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="E57" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="F57" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G57" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2046,10 +2046,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150400</v>
+        <v>153100</v>
       </c>
       <c r="E58" s="3">
-        <v>133200</v>
+        <v>135600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="E59" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="F59" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="G59" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>219300</v>
+        <v>223200</v>
       </c>
       <c r="E60" s="3">
-        <v>186900</v>
+        <v>190300</v>
       </c>
       <c r="F60" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="G60" s="3">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118700</v>
+        <v>120800</v>
       </c>
       <c r="E61" s="3">
-        <v>141100</v>
+        <v>143700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="E62" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="F62" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="G62" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>386500</v>
+        <v>393500</v>
       </c>
       <c r="E66" s="3">
-        <v>361700</v>
+        <v>368200</v>
       </c>
       <c r="F66" s="3">
-        <v>72500</v>
+        <v>73800</v>
       </c>
       <c r="G66" s="3">
-        <v>73900</v>
+        <v>75200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2450,16 +2450,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>419600</v>
+        <v>427200</v>
       </c>
       <c r="E72" s="3">
-        <v>379900</v>
+        <v>386700</v>
       </c>
       <c r="F72" s="3">
-        <v>384400</v>
+        <v>391400</v>
       </c>
       <c r="G72" s="3">
-        <v>354300</v>
+        <v>360700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2570,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>768500</v>
+        <v>782400</v>
       </c>
       <c r="E76" s="3">
-        <v>588700</v>
+        <v>599400</v>
       </c>
       <c r="F76" s="3">
-        <v>450700</v>
+        <v>458900</v>
       </c>
       <c r="G76" s="3">
-        <v>411900</v>
+        <v>419400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E81" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F81" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="G81" s="3">
-        <v>72900</v>
+        <v>74200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2709,16 +2709,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>66800</v>
+        <v>68000</v>
       </c>
       <c r="E83" s="3">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="F83" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="G83" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>112700</v>
+        <v>114700</v>
       </c>
       <c r="E89" s="3">
-        <v>73800</v>
+        <v>75100</v>
       </c>
       <c r="F89" s="3">
-        <v>82200</v>
+        <v>83700</v>
       </c>
       <c r="G89" s="3">
-        <v>74100</v>
+        <v>75500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53900</v>
+        <v>-54900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14900</v>
+        <v>-15100</v>
       </c>
       <c r="F91" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="G91" s="3">
-        <v>-19200</v>
+        <v>-19600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-367400</v>
+        <v>-374100</v>
       </c>
       <c r="E94" s="3">
-        <v>-173500</v>
+        <v>-176600</v>
       </c>
       <c r="F94" s="3">
-        <v>-58400</v>
+        <v>-59500</v>
       </c>
       <c r="G94" s="3">
-        <v>-44200</v>
+        <v>-45000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-29300</v>
+        <v>-29800</v>
       </c>
       <c r="F96" s="3">
-        <v>-29200</v>
+        <v>-29700</v>
       </c>
       <c r="G96" s="3">
-        <v>-25900</v>
+        <v>-26400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>148100</v>
+        <v>150700</v>
       </c>
       <c r="E100" s="3">
-        <v>216200</v>
+        <v>220100</v>
       </c>
       <c r="F100" s="3">
-        <v>-28900</v>
+        <v>-29500</v>
       </c>
       <c r="G100" s="3">
-        <v>-24100</v>
+        <v>-24600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3223,7 +3223,7 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-108000</v>
+        <v>-109900</v>
       </c>
       <c r="E102" s="3">
-        <v>117400</v>
+        <v>119500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="G102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,41 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,26 +709,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>552000</v>
+        <v>448800</v>
       </c>
       <c r="E8" s="3">
-        <v>310100</v>
+        <v>574400</v>
       </c>
       <c r="F8" s="3">
-        <v>309900</v>
+        <v>322600</v>
       </c>
       <c r="G8" s="3">
-        <v>278100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>322500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>289400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -739,26 +742,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>159400</v>
+        <v>113200</v>
       </c>
       <c r="E9" s="3">
+        <v>165900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99000</v>
+      </c>
+      <c r="G9" s="3">
         <v>95200</v>
       </c>
-      <c r="F9" s="3">
-        <v>91500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>83700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>87100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -769,26 +775,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>392600</v>
+        <v>335600</v>
       </c>
       <c r="E10" s="3">
-        <v>214900</v>
+        <v>408500</v>
       </c>
       <c r="F10" s="3">
-        <v>218500</v>
+        <v>223600</v>
       </c>
       <c r="G10" s="3">
-        <v>194400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>227300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>202300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,25 +826,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>36300</v>
+        <v>28800</v>
       </c>
       <c r="E12" s="3">
-        <v>20700</v>
+        <v>37700</v>
       </c>
       <c r="F12" s="3">
-        <v>12800</v>
+        <v>21600</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>13300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30500</v>
+        <v>50300</v>
       </c>
       <c r="E14" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="F14" s="3">
-        <v>25000</v>
+        <v>31500</v>
       </c>
       <c r="G14" s="3">
-        <v>14900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -903,26 +922,29 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16100</v>
+        <v>21000</v>
       </c>
       <c r="E15" s="3">
-        <v>10300</v>
+        <v>16800</v>
       </c>
       <c r="F15" s="3">
-        <v>7800</v>
+        <v>10700</v>
       </c>
       <c r="G15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -933,9 +955,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,25 +970,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>522900</v>
+        <v>461300</v>
       </c>
       <c r="E17" s="3">
-        <v>297500</v>
+        <v>544100</v>
       </c>
       <c r="F17" s="3">
-        <v>243000</v>
+        <v>309600</v>
       </c>
       <c r="G17" s="3">
-        <v>196000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>252900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>204000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -974,26 +1000,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29100</v>
+        <v>-12500</v>
       </c>
       <c r="E18" s="3">
-        <v>12500</v>
+        <v>30300</v>
       </c>
       <c r="F18" s="3">
-        <v>66900</v>
+        <v>13000</v>
       </c>
       <c r="G18" s="3">
-        <v>82000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>69600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>85400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,25 +1051,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1048,26 +1081,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94900</v>
+        <v>53400</v>
       </c>
       <c r="E21" s="3">
-        <v>47200</v>
+        <v>99700</v>
       </c>
       <c r="F21" s="3">
-        <v>85500</v>
+        <v>49600</v>
       </c>
       <c r="G21" s="3">
-        <v>97700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>89200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>101800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1078,20 +1114,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>6700</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1108,26 +1147,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24200</v>
+        <v>-19400</v>
       </c>
       <c r="E23" s="3">
-        <v>10000</v>
+        <v>25200</v>
       </c>
       <c r="F23" s="3">
-        <v>67300</v>
+        <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>82400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>70000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>85700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1138,26 +1180,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>-8800</v>
       </c>
       <c r="E24" s="3">
-        <v>-4900</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
-        <v>13400</v>
+        <v>-5100</v>
       </c>
       <c r="G24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,26 +1246,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20500</v>
+        <v>-10500</v>
       </c>
       <c r="E26" s="3">
-        <v>14900</v>
+        <v>21300</v>
       </c>
       <c r="F26" s="3">
-        <v>53900</v>
+        <v>15500</v>
       </c>
       <c r="G26" s="3">
-        <v>68000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>70700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1228,26 +1279,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20500</v>
+        <v>-10500</v>
       </c>
       <c r="E27" s="3">
-        <v>14900</v>
+        <v>21300</v>
       </c>
       <c r="F27" s="3">
-        <v>53900</v>
+        <v>15500</v>
       </c>
       <c r="G27" s="3">
-        <v>68000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>70700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,26 +1345,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>6500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,26 +1444,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1408,26 +1477,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20500</v>
+        <v>-10500</v>
       </c>
       <c r="E33" s="3">
-        <v>14900</v>
+        <v>21300</v>
       </c>
       <c r="F33" s="3">
-        <v>53700</v>
+        <v>15500</v>
       </c>
       <c r="G33" s="3">
-        <v>74200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>55800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>77200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,26 +1543,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20500</v>
+        <v>-10500</v>
       </c>
       <c r="E35" s="3">
-        <v>14900</v>
+        <v>21300</v>
       </c>
       <c r="F35" s="3">
-        <v>53700</v>
+        <v>15500</v>
       </c>
       <c r="G35" s="3">
-        <v>74200</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>55800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>77200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1498,32 +1576,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1614,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,25 +1647,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113400</v>
+        <v>110400</v>
       </c>
       <c r="E41" s="3">
-        <v>223400</v>
+        <v>118000</v>
       </c>
       <c r="F41" s="3">
-        <v>103900</v>
+        <v>232400</v>
       </c>
       <c r="G41" s="3">
-        <v>107600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>108100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>111900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1591,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,26 +1710,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62700</v>
+        <v>112000</v>
       </c>
       <c r="E43" s="3">
-        <v>55000</v>
+        <v>81800</v>
       </c>
       <c r="F43" s="3">
-        <v>51800</v>
+        <v>57200</v>
       </c>
       <c r="G43" s="3">
-        <v>37300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>53900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>38800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1651,26 +1743,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69400</v>
+        <v>84400</v>
       </c>
       <c r="E44" s="3">
-        <v>48500</v>
+        <v>72200</v>
       </c>
       <c r="F44" s="3">
-        <v>42900</v>
+        <v>50500</v>
       </c>
       <c r="G44" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>44700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>36700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1681,26 +1776,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1711,26 +1809,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>252200</v>
+        <v>316900</v>
       </c>
       <c r="E46" s="3">
-        <v>332500</v>
+        <v>278900</v>
       </c>
       <c r="F46" s="3">
-        <v>204900</v>
+        <v>345900</v>
       </c>
       <c r="G46" s="3">
-        <v>190700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>213200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>198400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1741,27 +1842,30 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>8300</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1771,26 +1875,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>192800</v>
+        <v>198200</v>
       </c>
       <c r="E48" s="3">
-        <v>196400</v>
+        <v>200600</v>
       </c>
       <c r="F48" s="3">
-        <v>44200</v>
+        <v>204400</v>
       </c>
       <c r="G48" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>46000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>31100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1801,26 +1908,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714300</v>
+        <v>777000</v>
       </c>
       <c r="E49" s="3">
-        <v>414000</v>
+        <v>741600</v>
       </c>
       <c r="F49" s="3">
-        <v>271400</v>
+        <v>430800</v>
       </c>
       <c r="G49" s="3">
-        <v>262900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>282400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>273600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,26 +2007,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12400</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F52" s="3">
-        <v>11200</v>
+        <v>17000</v>
       </c>
       <c r="G52" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,26 +2073,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1175900</v>
+        <v>1311000</v>
       </c>
       <c r="E54" s="3">
-        <v>967600</v>
+        <v>1241900</v>
       </c>
       <c r="F54" s="3">
-        <v>532700</v>
+        <v>1006800</v>
       </c>
       <c r="G54" s="3">
-        <v>494700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>554300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>514700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,25 +2139,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15400</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>11200</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>8300</v>
+        <v>11700</v>
       </c>
       <c r="G57" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2039,20 +2169,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153100</v>
+        <v>158900</v>
       </c>
       <c r="E58" s="3">
-        <v>135600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>159300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>141100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2069,26 +2202,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54700</v>
+        <v>71800</v>
       </c>
       <c r="E59" s="3">
-        <v>43500</v>
+        <v>75300</v>
       </c>
       <c r="F59" s="3">
-        <v>45700</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>50100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>47500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2099,26 +2235,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>223200</v>
+        <v>250400</v>
       </c>
       <c r="E60" s="3">
-        <v>190300</v>
+        <v>250600</v>
       </c>
       <c r="F60" s="3">
-        <v>54000</v>
+        <v>198000</v>
       </c>
       <c r="G60" s="3">
-        <v>58400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>56200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>60800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2129,20 +2268,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>120800</v>
+        <v>118900</v>
       </c>
       <c r="E61" s="3">
-        <v>143700</v>
+        <v>125700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>149500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2159,26 +2301,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49500</v>
+        <v>39800</v>
       </c>
       <c r="E62" s="3">
-        <v>34200</v>
+        <v>51500</v>
       </c>
       <c r="F62" s="3">
-        <v>19800</v>
+        <v>35600</v>
       </c>
       <c r="G62" s="3">
-        <v>16800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,26 +2433,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>393500</v>
+        <v>409100</v>
       </c>
       <c r="E66" s="3">
-        <v>368200</v>
+        <v>427800</v>
       </c>
       <c r="F66" s="3">
-        <v>73800</v>
+        <v>383200</v>
       </c>
       <c r="G66" s="3">
-        <v>75200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>76800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>78300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,26 +2613,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>427200</v>
+        <v>458200</v>
       </c>
       <c r="E72" s="3">
-        <v>386700</v>
+        <v>444500</v>
       </c>
       <c r="F72" s="3">
-        <v>391400</v>
+        <v>402400</v>
       </c>
       <c r="G72" s="3">
-        <v>360700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>407200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>375300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,26 +2745,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>782400</v>
+        <v>901900</v>
       </c>
       <c r="E76" s="3">
-        <v>599400</v>
+        <v>814100</v>
       </c>
       <c r="F76" s="3">
-        <v>458900</v>
+        <v>623600</v>
       </c>
       <c r="G76" s="3">
-        <v>419400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>477500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>436400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,32 +2811,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,26 +2849,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20500</v>
+        <v>-10500</v>
       </c>
       <c r="E81" s="3">
-        <v>14900</v>
+        <v>21300</v>
       </c>
       <c r="F81" s="3">
-        <v>53700</v>
+        <v>15500</v>
       </c>
       <c r="G81" s="3">
-        <v>74200</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>55800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>77200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,25 +2900,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68000</v>
+        <v>65600</v>
       </c>
       <c r="E83" s="3">
-        <v>35700</v>
+        <v>70700</v>
       </c>
       <c r="F83" s="3">
-        <v>18400</v>
+        <v>37100</v>
       </c>
       <c r="G83" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>16000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,26 +3095,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114700</v>
+        <v>35600</v>
       </c>
       <c r="E89" s="3">
-        <v>75100</v>
+        <v>119400</v>
       </c>
       <c r="F89" s="3">
-        <v>83700</v>
+        <v>78200</v>
       </c>
       <c r="G89" s="3">
-        <v>75500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>87100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>78500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,25 +3146,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54900</v>
+        <v>-20800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15100</v>
+        <v>-57100</v>
       </c>
       <c r="F91" s="3">
-        <v>-21100</v>
+        <v>-15800</v>
       </c>
       <c r="G91" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-22000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-20300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,26 +3242,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374100</v>
+        <v>-30300</v>
       </c>
       <c r="E94" s="3">
-        <v>-176600</v>
+        <v>-389200</v>
       </c>
       <c r="F94" s="3">
-        <v>-59500</v>
+        <v>-183800</v>
       </c>
       <c r="G94" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-61900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-46800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3070,16 +3303,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-29800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-29700</v>
+        <v>-31000</v>
       </c>
       <c r="G96" s="3">
-        <v>-26400</v>
+        <v>-30900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-27400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,26 +3422,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>150700</v>
+        <v>-19200</v>
       </c>
       <c r="E100" s="3">
-        <v>220100</v>
+        <v>156800</v>
       </c>
       <c r="F100" s="3">
-        <v>-29500</v>
+        <v>229100</v>
       </c>
       <c r="G100" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-30600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-25600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3210,27 +3455,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
+        <v>900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,26 +3488,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-109900</v>
+        <v>-7600</v>
       </c>
       <c r="E102" s="3">
-        <v>119500</v>
+        <v>-114400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3700</v>
+        <v>124300</v>
       </c>
       <c r="G102" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -719,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>448800</v>
+        <v>458400</v>
       </c>
       <c r="E8" s="3">
-        <v>574400</v>
+        <v>586600</v>
       </c>
       <c r="F8" s="3">
-        <v>322600</v>
+        <v>329500</v>
       </c>
       <c r="G8" s="3">
-        <v>322500</v>
+        <v>329400</v>
       </c>
       <c r="H8" s="3">
-        <v>289400</v>
+        <v>295500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -752,19 +752,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>113200</v>
+        <v>115600</v>
       </c>
       <c r="E9" s="3">
-        <v>165900</v>
+        <v>169400</v>
       </c>
       <c r="F9" s="3">
-        <v>99000</v>
+        <v>101100</v>
       </c>
       <c r="G9" s="3">
-        <v>95200</v>
+        <v>97200</v>
       </c>
       <c r="H9" s="3">
-        <v>87100</v>
+        <v>89000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>335600</v>
+        <v>342800</v>
       </c>
       <c r="E10" s="3">
-        <v>408500</v>
+        <v>417200</v>
       </c>
       <c r="F10" s="3">
-        <v>223600</v>
+        <v>228400</v>
       </c>
       <c r="G10" s="3">
-        <v>227300</v>
+        <v>232200</v>
       </c>
       <c r="H10" s="3">
-        <v>202300</v>
+        <v>206600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="E12" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="F12" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="G12" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H12" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -899,19 +899,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50300</v>
+        <v>51300</v>
       </c>
       <c r="E14" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="F14" s="3">
-        <v>31500</v>
+        <v>32200</v>
       </c>
       <c r="G14" s="3">
-        <v>26100</v>
+        <v>26600</v>
       </c>
       <c r="H14" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -932,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="E15" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="F15" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G15" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>461300</v>
+        <v>471200</v>
       </c>
       <c r="E17" s="3">
-        <v>544100</v>
+        <v>555700</v>
       </c>
       <c r="F17" s="3">
-        <v>309600</v>
+        <v>316200</v>
       </c>
       <c r="G17" s="3">
-        <v>252900</v>
+        <v>258300</v>
       </c>
       <c r="H17" s="3">
-        <v>204000</v>
+        <v>208300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1010,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="E18" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="F18" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="G18" s="3">
-        <v>69600</v>
+        <v>71100</v>
       </c>
       <c r="H18" s="3">
-        <v>85400</v>
+        <v>87200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1061,10 +1061,10 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1091,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53400</v>
+        <v>54100</v>
       </c>
       <c r="E21" s="3">
-        <v>99700</v>
+        <v>101400</v>
       </c>
       <c r="F21" s="3">
-        <v>49600</v>
+        <v>50400</v>
       </c>
       <c r="G21" s="3">
-        <v>89200</v>
+        <v>91000</v>
       </c>
       <c r="H21" s="3">
-        <v>101800</v>
+        <v>103900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3">
         <v>3400</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E23" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="F23" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="G23" s="3">
-        <v>70000</v>
+        <v>71500</v>
       </c>
       <c r="H23" s="3">
-        <v>85700</v>
+        <v>87600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1190,19 +1190,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8800</v>
+        <v>-9000</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G24" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="H24" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E26" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="F26" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G26" s="3">
-        <v>56100</v>
+        <v>57300</v>
       </c>
       <c r="H26" s="3">
-        <v>70700</v>
+        <v>72200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E27" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G27" s="3">
-        <v>56100</v>
+        <v>57300</v>
       </c>
       <c r="H27" s="3">
-        <v>70700</v>
+        <v>72200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H29" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1457,10 +1457,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1487,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E33" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G33" s="3">
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="H33" s="3">
-        <v>77200</v>
+        <v>78800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E35" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G35" s="3">
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="H35" s="3">
-        <v>77200</v>
+        <v>78800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1654,19 +1654,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>120500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>237400</v>
+      </c>
+      <c r="G41" s="3">
         <v>110400</v>
       </c>
-      <c r="E41" s="3">
-        <v>118000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>232400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>108100</v>
-      </c>
       <c r="H41" s="3">
-        <v>111900</v>
+        <v>114300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1720,19 +1720,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112000</v>
+        <v>114400</v>
       </c>
       <c r="E43" s="3">
-        <v>81800</v>
+        <v>83500</v>
       </c>
       <c r="F43" s="3">
-        <v>57200</v>
+        <v>58400</v>
       </c>
       <c r="G43" s="3">
-        <v>53900</v>
+        <v>55000</v>
       </c>
       <c r="H43" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1753,19 +1753,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="E44" s="3">
-        <v>72200</v>
+        <v>73800</v>
       </c>
       <c r="F44" s="3">
-        <v>50500</v>
+        <v>51600</v>
       </c>
       <c r="G44" s="3">
-        <v>44700</v>
+        <v>45600</v>
       </c>
       <c r="H44" s="3">
-        <v>36700</v>
+        <v>37500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1786,19 +1786,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H45" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316900</v>
+        <v>323700</v>
       </c>
       <c r="E46" s="3">
-        <v>278900</v>
+        <v>284900</v>
       </c>
       <c r="F46" s="3">
-        <v>345900</v>
+        <v>353300</v>
       </c>
       <c r="G46" s="3">
-        <v>213200</v>
+        <v>217700</v>
       </c>
       <c r="H46" s="3">
-        <v>198400</v>
+        <v>202600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1852,13 +1852,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F47" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -1885,19 +1885,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>198200</v>
+        <v>202400</v>
       </c>
       <c r="E48" s="3">
-        <v>200600</v>
+        <v>204900</v>
       </c>
       <c r="F48" s="3">
-        <v>204400</v>
+        <v>208700</v>
       </c>
       <c r="G48" s="3">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="H48" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1918,19 +1918,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>777000</v>
+        <v>793600</v>
       </c>
       <c r="E49" s="3">
-        <v>741600</v>
+        <v>757500</v>
       </c>
       <c r="F49" s="3">
-        <v>430800</v>
+        <v>440000</v>
       </c>
       <c r="G49" s="3">
-        <v>282400</v>
+        <v>288400</v>
       </c>
       <c r="H49" s="3">
-        <v>273600</v>
+        <v>279400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2017,19 +2017,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="E52" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="F52" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="G52" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="H52" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2083,19 +2083,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1311000</v>
+        <v>1339000</v>
       </c>
       <c r="E54" s="3">
-        <v>1241900</v>
+        <v>1268400</v>
       </c>
       <c r="F54" s="3">
-        <v>1006800</v>
+        <v>1028300</v>
       </c>
       <c r="G54" s="3">
-        <v>554300</v>
+        <v>566100</v>
       </c>
       <c r="H54" s="3">
-        <v>514700</v>
+        <v>525700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2146,19 +2146,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="E57" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F57" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2179,13 +2179,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>158900</v>
+        <v>162300</v>
       </c>
       <c r="E58" s="3">
-        <v>159300</v>
+        <v>162700</v>
       </c>
       <c r="F58" s="3">
-        <v>141100</v>
+        <v>144100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2212,19 +2212,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71800</v>
+        <v>73400</v>
       </c>
       <c r="E59" s="3">
-        <v>75300</v>
+        <v>76900</v>
       </c>
       <c r="F59" s="3">
-        <v>45300</v>
+        <v>46300</v>
       </c>
       <c r="G59" s="3">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="H59" s="3">
-        <v>52100</v>
+        <v>53200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2245,19 +2245,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>250400</v>
+        <v>255700</v>
       </c>
       <c r="E60" s="3">
-        <v>250600</v>
+        <v>256000</v>
       </c>
       <c r="F60" s="3">
-        <v>198000</v>
+        <v>202300</v>
       </c>
       <c r="G60" s="3">
-        <v>56200</v>
+        <v>57400</v>
       </c>
       <c r="H60" s="3">
-        <v>60800</v>
+        <v>62100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118900</v>
+        <v>121400</v>
       </c>
       <c r="E61" s="3">
-        <v>125700</v>
+        <v>128400</v>
       </c>
       <c r="F61" s="3">
-        <v>149500</v>
+        <v>152700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="E62" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="F62" s="3">
-        <v>35600</v>
+        <v>36400</v>
       </c>
       <c r="G62" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="H62" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2443,19 +2443,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>409100</v>
+        <v>417800</v>
       </c>
       <c r="E66" s="3">
-        <v>427800</v>
+        <v>437000</v>
       </c>
       <c r="F66" s="3">
-        <v>383200</v>
+        <v>391300</v>
       </c>
       <c r="G66" s="3">
-        <v>76800</v>
+        <v>78400</v>
       </c>
       <c r="H66" s="3">
-        <v>78300</v>
+        <v>80000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2623,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>458200</v>
+        <v>468000</v>
       </c>
       <c r="E72" s="3">
-        <v>444500</v>
+        <v>453900</v>
       </c>
       <c r="F72" s="3">
-        <v>402400</v>
+        <v>411000</v>
       </c>
       <c r="G72" s="3">
-        <v>407200</v>
+        <v>415900</v>
       </c>
       <c r="H72" s="3">
-        <v>375300</v>
+        <v>383400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2755,19 +2755,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>901900</v>
+        <v>921200</v>
       </c>
       <c r="E76" s="3">
-        <v>814100</v>
+        <v>831500</v>
       </c>
       <c r="F76" s="3">
-        <v>623600</v>
+        <v>636900</v>
       </c>
       <c r="G76" s="3">
-        <v>477500</v>
+        <v>487700</v>
       </c>
       <c r="H76" s="3">
-        <v>436400</v>
+        <v>445700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E81" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G81" s="3">
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="H81" s="3">
-        <v>77200</v>
+        <v>78800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2907,19 +2907,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65600</v>
+        <v>67000</v>
       </c>
       <c r="E83" s="3">
-        <v>70700</v>
+        <v>72200</v>
       </c>
       <c r="F83" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="G83" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="H83" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3105,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35600</v>
+        <v>36400</v>
       </c>
       <c r="E89" s="3">
-        <v>119400</v>
+        <v>121900</v>
       </c>
       <c r="F89" s="3">
-        <v>78200</v>
+        <v>79800</v>
       </c>
       <c r="G89" s="3">
-        <v>87100</v>
+        <v>89000</v>
       </c>
       <c r="H89" s="3">
-        <v>78500</v>
+        <v>80200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-20800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-20300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30300</v>
+        <v>-30900</v>
       </c>
       <c r="E94" s="3">
-        <v>-389200</v>
+        <v>-397600</v>
       </c>
       <c r="F94" s="3">
-        <v>-183800</v>
+        <v>-187700</v>
       </c>
       <c r="G94" s="3">
-        <v>-61900</v>
+        <v>-63200</v>
       </c>
       <c r="H94" s="3">
-        <v>-46800</v>
+        <v>-47800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3306,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31000</v>
+        <v>-31700</v>
       </c>
       <c r="G96" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H96" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19200</v>
+        <v>-19600</v>
       </c>
       <c r="E100" s="3">
-        <v>156800</v>
+        <v>160200</v>
       </c>
       <c r="F100" s="3">
-        <v>229100</v>
+        <v>233900</v>
       </c>
       <c r="G100" s="3">
-        <v>-30600</v>
+        <v>-31300</v>
       </c>
       <c r="H100" s="3">
-        <v>-25600</v>
+        <v>-26100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3465,7 +3465,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="E102" s="3">
-        <v>-114400</v>
+        <v>-116800</v>
       </c>
       <c r="F102" s="3">
-        <v>124300</v>
+        <v>127000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H102" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABCM_YR_FIN.xlsx
@@ -719,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>458400</v>
+        <v>448700</v>
       </c>
       <c r="E8" s="3">
-        <v>586600</v>
+        <v>574300</v>
       </c>
       <c r="F8" s="3">
-        <v>329500</v>
+        <v>322600</v>
       </c>
       <c r="G8" s="3">
-        <v>329400</v>
+        <v>322400</v>
       </c>
       <c r="H8" s="3">
-        <v>295500</v>
+        <v>289300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -752,19 +752,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>115600</v>
+        <v>113100</v>
       </c>
       <c r="E9" s="3">
-        <v>169400</v>
+        <v>165900</v>
       </c>
       <c r="F9" s="3">
-        <v>101100</v>
+        <v>99000</v>
       </c>
       <c r="G9" s="3">
-        <v>97200</v>
+        <v>95200</v>
       </c>
       <c r="H9" s="3">
-        <v>89000</v>
+        <v>87100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>342800</v>
+        <v>335600</v>
       </c>
       <c r="E10" s="3">
-        <v>417200</v>
+        <v>408400</v>
       </c>
       <c r="F10" s="3">
-        <v>228400</v>
+        <v>223600</v>
       </c>
       <c r="G10" s="3">
-        <v>232200</v>
+        <v>227300</v>
       </c>
       <c r="H10" s="3">
-        <v>206600</v>
+        <v>202200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29400</v>
+        <v>28800</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>37700</v>
       </c>
       <c r="F12" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="G12" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="H12" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -899,19 +899,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>51300</v>
+        <v>50200</v>
       </c>
       <c r="E14" s="3">
-        <v>32400</v>
+        <v>31800</v>
       </c>
       <c r="F14" s="3">
-        <v>32200</v>
+        <v>31500</v>
       </c>
       <c r="G14" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="H14" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -932,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21400</v>
+        <v>21000</v>
       </c>
       <c r="E15" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="F15" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G15" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H15" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>471200</v>
+        <v>461300</v>
       </c>
       <c r="E17" s="3">
-        <v>555700</v>
+        <v>544000</v>
       </c>
       <c r="F17" s="3">
-        <v>316200</v>
+        <v>309500</v>
       </c>
       <c r="G17" s="3">
-        <v>258300</v>
+        <v>252800</v>
       </c>
       <c r="H17" s="3">
-        <v>208300</v>
+        <v>204000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1010,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="E18" s="3">
-        <v>30900</v>
+        <v>30300</v>
       </c>
       <c r="F18" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="G18" s="3">
-        <v>71100</v>
+        <v>69600</v>
       </c>
       <c r="H18" s="3">
-        <v>87200</v>
+        <v>85400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1061,10 +1061,10 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1091,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54100</v>
+        <v>53000</v>
       </c>
       <c r="E21" s="3">
-        <v>101400</v>
+        <v>99300</v>
       </c>
       <c r="F21" s="3">
-        <v>50400</v>
+        <v>49400</v>
       </c>
       <c r="G21" s="3">
-        <v>91000</v>
+        <v>89100</v>
       </c>
       <c r="H21" s="3">
-        <v>103900</v>
+        <v>101700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1124,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
         <v>1900</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19800</v>
+        <v>-19400</v>
       </c>
       <c r="E23" s="3">
-        <v>25700</v>
+        <v>25200</v>
       </c>
       <c r="F23" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>71500</v>
+        <v>70000</v>
       </c>
       <c r="H23" s="3">
-        <v>87600</v>
+        <v>85700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1190,19 +1190,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9000</v>
+        <v>-8800</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G24" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E26" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G26" s="3">
-        <v>57300</v>
+        <v>56100</v>
       </c>
       <c r="H26" s="3">
-        <v>72200</v>
+        <v>70700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="F27" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G27" s="3">
-        <v>57300</v>
+        <v>56100</v>
       </c>
       <c r="H27" s="3">
-        <v>72200</v>
+        <v>70700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H29" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1457,10 +1457,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1487,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="F33" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G33" s="3">
-        <v>57000</v>
+        <v>55800</v>
       </c>
       <c r="H33" s="3">
-        <v>78800</v>
+        <v>77200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="F35" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G35" s="3">
-        <v>57000</v>
+        <v>55800</v>
       </c>
       <c r="H35" s="3">
-        <v>78800</v>
+        <v>77200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1654,19 +1654,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112800</v>
+        <v>110400</v>
       </c>
       <c r="E41" s="3">
-        <v>120500</v>
+        <v>118000</v>
       </c>
       <c r="F41" s="3">
-        <v>237400</v>
+        <v>232400</v>
       </c>
       <c r="G41" s="3">
-        <v>110400</v>
+        <v>108100</v>
       </c>
       <c r="H41" s="3">
-        <v>114300</v>
+        <v>111900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1720,19 +1720,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>114400</v>
+        <v>112000</v>
       </c>
       <c r="E43" s="3">
-        <v>83500</v>
+        <v>81800</v>
       </c>
       <c r="F43" s="3">
-        <v>58400</v>
+        <v>57200</v>
       </c>
       <c r="G43" s="3">
-        <v>55000</v>
+        <v>53800</v>
       </c>
       <c r="H43" s="3">
-        <v>39700</v>
+        <v>38800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1753,19 +1753,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>86200</v>
+        <v>84400</v>
       </c>
       <c r="E44" s="3">
-        <v>73800</v>
+        <v>72200</v>
       </c>
       <c r="F44" s="3">
-        <v>51600</v>
+        <v>50500</v>
       </c>
       <c r="G44" s="3">
-        <v>45600</v>
+        <v>44700</v>
       </c>
       <c r="H44" s="3">
-        <v>37500</v>
+        <v>36700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1786,19 +1786,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H45" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>323700</v>
+        <v>316800</v>
       </c>
       <c r="E46" s="3">
-        <v>284900</v>
+        <v>278900</v>
       </c>
       <c r="F46" s="3">
-        <v>353300</v>
+        <v>345900</v>
       </c>
       <c r="G46" s="3">
-        <v>217700</v>
+        <v>213100</v>
       </c>
       <c r="H46" s="3">
-        <v>202600</v>
+        <v>198400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1852,13 +1852,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -1885,19 +1885,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>202400</v>
+        <v>198100</v>
       </c>
       <c r="E48" s="3">
-        <v>204900</v>
+        <v>200600</v>
       </c>
       <c r="F48" s="3">
-        <v>208700</v>
+        <v>204300</v>
       </c>
       <c r="G48" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="H48" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1918,19 +1918,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>793600</v>
+        <v>776900</v>
       </c>
       <c r="E49" s="3">
-        <v>757500</v>
+        <v>741500</v>
       </c>
       <c r="F49" s="3">
-        <v>440000</v>
+        <v>430700</v>
       </c>
       <c r="G49" s="3">
-        <v>288400</v>
+        <v>282400</v>
       </c>
       <c r="H49" s="3">
-        <v>279400</v>
+        <v>273600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2017,19 +2017,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>16700</v>
+        <v>16400</v>
       </c>
       <c r="F52" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="G52" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="H52" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2083,19 +2083,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1339000</v>
+        <v>1310800</v>
       </c>
       <c r="E54" s="3">
-        <v>1268400</v>
+        <v>1241700</v>
       </c>
       <c r="F54" s="3">
-        <v>1028300</v>
+        <v>1006600</v>
       </c>
       <c r="G54" s="3">
-        <v>566100</v>
+        <v>554200</v>
       </c>
       <c r="H54" s="3">
-        <v>525700</v>
+        <v>514600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2146,19 +2146,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="G57" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2179,13 +2179,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>162300</v>
+        <v>158900</v>
       </c>
       <c r="E58" s="3">
-        <v>162700</v>
+        <v>159300</v>
       </c>
       <c r="F58" s="3">
-        <v>144100</v>
+        <v>141100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2212,19 +2212,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73400</v>
+        <v>71800</v>
       </c>
       <c r="E59" s="3">
-        <v>76900</v>
+        <v>75300</v>
       </c>
       <c r="F59" s="3">
-        <v>46300</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>48500</v>
+        <v>47500</v>
       </c>
       <c r="H59" s="3">
-        <v>53200</v>
+        <v>52100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2245,19 +2245,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>255700</v>
+        <v>250400</v>
       </c>
       <c r="E60" s="3">
-        <v>256000</v>
+        <v>250600</v>
       </c>
       <c r="F60" s="3">
-        <v>202300</v>
+        <v>198000</v>
       </c>
       <c r="G60" s="3">
-        <v>57400</v>
+        <v>56200</v>
       </c>
       <c r="H60" s="3">
-        <v>62100</v>
+        <v>60800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>121400</v>
+        <v>118800</v>
       </c>
       <c r="E61" s="3">
-        <v>128400</v>
+        <v>125700</v>
       </c>
       <c r="F61" s="3">
-        <v>152700</v>
+        <v>149500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40700</v>
+        <v>39800</v>
       </c>
       <c r="E62" s="3">
-        <v>52600</v>
+        <v>51500</v>
       </c>
       <c r="F62" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="G62" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="H62" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2443,19 +2443,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>417800</v>
+        <v>409000</v>
       </c>
       <c r="E66" s="3">
-        <v>437000</v>
+        <v>427800</v>
       </c>
       <c r="F66" s="3">
-        <v>391300</v>
+        <v>383100</v>
       </c>
       <c r="G66" s="3">
-        <v>78400</v>
+        <v>76800</v>
       </c>
       <c r="H66" s="3">
-        <v>80000</v>
+        <v>78300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2623,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>468000</v>
+        <v>458200</v>
       </c>
       <c r="E72" s="3">
-        <v>453900</v>
+        <v>444400</v>
       </c>
       <c r="F72" s="3">
-        <v>411000</v>
+        <v>402300</v>
       </c>
       <c r="G72" s="3">
-        <v>415900</v>
+        <v>407200</v>
       </c>
       <c r="H72" s="3">
-        <v>383400</v>
+        <v>375300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2755,19 +2755,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>921200</v>
+        <v>901800</v>
       </c>
       <c r="E76" s="3">
-        <v>831500</v>
+        <v>814000</v>
       </c>
       <c r="F76" s="3">
-        <v>636900</v>
+        <v>623500</v>
       </c>
       <c r="G76" s="3">
-        <v>487700</v>
+        <v>477400</v>
       </c>
       <c r="H76" s="3">
-        <v>445700</v>
+        <v>436300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="F81" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G81" s="3">
-        <v>57000</v>
+        <v>55800</v>
       </c>
       <c r="H81" s="3">
-        <v>78800</v>
+        <v>77200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2907,19 +2907,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67000</v>
+        <v>65600</v>
       </c>
       <c r="E83" s="3">
-        <v>72200</v>
+        <v>70700</v>
       </c>
       <c r="F83" s="3">
-        <v>37900</v>
+        <v>37100</v>
       </c>
       <c r="G83" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="H83" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3105,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="E89" s="3">
-        <v>121900</v>
+        <v>119300</v>
       </c>
       <c r="F89" s="3">
-        <v>79800</v>
+        <v>78200</v>
       </c>
       <c r="G89" s="3">
-        <v>89000</v>
+        <v>87100</v>
       </c>
       <c r="H89" s="3">
-        <v>80200</v>
+        <v>78500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21300</v>
+        <v>-20800</v>
       </c>
       <c r="E91" s="3">
-        <v>-58300</v>
+        <v>-57100</v>
       </c>
       <c r="F91" s="3">
-        <v>-16100</v>
+        <v>-15800</v>
       </c>
       <c r="G91" s="3">
-        <v>-22400</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3">
-        <v>-20800</v>
+        <v>-20300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30900</v>
+        <v>-30300</v>
       </c>
       <c r="E94" s="3">
-        <v>-397600</v>
+        <v>-389200</v>
       </c>
       <c r="F94" s="3">
-        <v>-187700</v>
+        <v>-183700</v>
       </c>
       <c r="G94" s="3">
-        <v>-63200</v>
+        <v>-61900</v>
       </c>
       <c r="H94" s="3">
-        <v>-47800</v>
+        <v>-46800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3306,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31700</v>
+        <v>-31000</v>
       </c>
       <c r="G96" s="3">
-        <v>-31600</v>
+        <v>-30900</v>
       </c>
       <c r="H96" s="3">
-        <v>-28000</v>
+        <v>-27400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="E100" s="3">
-        <v>160200</v>
+        <v>156800</v>
       </c>
       <c r="F100" s="3">
-        <v>233900</v>
+        <v>229000</v>
       </c>
       <c r="G100" s="3">
-        <v>-31300</v>
+        <v>-30600</v>
       </c>
       <c r="H100" s="3">
-        <v>-26100</v>
+        <v>-25600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3465,7 +3465,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E102" s="3">
-        <v>-116800</v>
+        <v>-114400</v>
       </c>
       <c r="F102" s="3">
-        <v>127000</v>
+        <v>124300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
